--- a/MillenniumHistory/Win32/EngineStaticReleaseWindows/Resource/AncientBooks/ImperialCourt.xlsx
+++ b/MillenniumHistory/Win32/EngineStaticReleaseWindows/Resource/AncientBooks/ImperialCourt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>@default</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>清季實錄</t>
+  </si>
+  <si>
+    <t>民國</t>
   </si>
 </sst>
 </file>
@@ -165,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,6 +187,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -192,16 +239,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,104 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -321,8 +278,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,31 +340,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,31 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,115 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,11 +534,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,50 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,18 +1107,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="10.4416666666667" style="1"/>
-    <col min="3" max="3" width="20.1083333333333" style="1"/>
-    <col min="4" max="4" width="10.4416666666667" style="1"/>
-    <col min="5" max="16384" width="9.775" style="1"/>
+    <col min="1" max="2" width="10.4444444444444" style="1"/>
+    <col min="3" max="3" width="20.1111111111111" style="1"/>
+    <col min="4" max="4" width="10.4444444444444" style="1"/>
+    <col min="5" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1448,6 +1451,14 @@
         <v>1911</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MillenniumHistory/Win32/EngineStaticReleaseWindows/Resource/AncientBooks/ImperialCourt.xlsx
+++ b/MillenniumHistory/Win32/EngineStaticReleaseWindows/Resource/AncientBooks/ImperialCourt.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>@default</t>
   </si>
@@ -112,16 +125,10 @@
     <t>兩晉紀聞</t>
   </si>
   <si>
-    <t>南朝</t>
-  </si>
-  <si>
-    <t>南朝實錄</t>
-  </si>
-  <si>
-    <t>北朝</t>
-  </si>
-  <si>
-    <t>北朝實錄</t>
+    <t>南北朝</t>
+  </si>
+  <si>
+    <t>南北實錄</t>
   </si>
   <si>
     <t>唐</t>
@@ -166,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -187,55 +194,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,6 +251,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -325,7 +311,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,49 +347,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,121 +485,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,21 +538,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,6 +570,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,148 +643,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -791,52 +798,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1107,18 +1114,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="10.4444444444444" style="1"/>
-    <col min="3" max="3" width="20.1111111111111" style="1"/>
-    <col min="4" max="4" width="10.4444444444444" style="1"/>
-    <col min="5" max="16384" width="9.77777777777778" style="1"/>
+    <col min="1" max="2" width="10.4416666666667" style="1"/>
+    <col min="3" max="3" width="20.1083333333333" style="1"/>
+    <col min="4" max="4" width="10.4416666666667" style="1"/>
+    <col min="5" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1329,7 +1336,7 @@
         <v>420</v>
       </c>
       <c r="E14" s="1">
-        <v>589</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1343,10 +1350,10 @@
         <v>35</v>
       </c>
       <c r="D15" s="1">
-        <v>386</v>
+        <v>618</v>
       </c>
       <c r="E15" s="1">
-        <v>618</v>
+        <v>907</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1360,10 +1367,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="1">
-        <v>618</v>
+        <v>907</v>
       </c>
       <c r="E16" s="1">
-        <v>907</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1377,10 +1384,10 @@
         <v>39</v>
       </c>
       <c r="D17" s="1">
-        <v>907</v>
+        <v>960</v>
       </c>
       <c r="E17" s="1">
-        <v>960</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1394,10 +1401,10 @@
         <v>41</v>
       </c>
       <c r="D18" s="1">
-        <v>960</v>
+        <v>1279</v>
       </c>
       <c r="E18" s="1">
-        <v>1279</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1411,10 +1418,10 @@
         <v>43</v>
       </c>
       <c r="D19" s="1">
-        <v>1279</v>
+        <v>1368</v>
       </c>
       <c r="E19" s="1">
-        <v>1368</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1428,35 +1435,18 @@
         <v>45</v>
       </c>
       <c r="D20" s="1">
-        <v>1368</v>
+        <v>1662</v>
       </c>
       <c r="E20" s="1">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1662</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
